--- a/data_quarter/zb/国民经济核算/三大需求对国内生产总值增长的贡献率.xlsx
+++ b/data_quarter/zb/国民经济核算/三大需求对国内生产总值增长的贡献率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>资本形成总额对国内生产总值增长贡献率_累计值</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>最终消费支出对国内生产总值增长贡献率</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>货物和服务净出口对国内生产总值增长贡献率</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>资本形成总额对国内生产总值增长贡献率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,61 +504,88 @@
       <c r="G2" t="n">
         <v>38.3015201706892</v>
       </c>
+      <c r="H2" t="n">
+        <v>78.11610820734271</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-16.4176283780316</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38.3015201706892</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.3545560060529</v>
+        <v>55.9217839058424</v>
       </c>
       <c r="C3" t="n">
-        <v>63.6053102446392</v>
+        <v>66.49133029705099</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.7452617742999</v>
+        <v>-5.03498468015939</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.558411982935</v>
+        <v>-10.4557120240023</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3907057682471</v>
+        <v>49.113200774317</v>
       </c>
       <c r="G3" t="n">
-        <v>46.9531017382959</v>
+        <v>43.9643817269513</v>
+      </c>
+      <c r="H3" t="n">
+        <v>66.49133029705099</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.961916354029301</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.662861556262101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.9217839058424</v>
+        <v>58.3545560060529</v>
       </c>
       <c r="C4" t="n">
-        <v>66.49133029705099</v>
+        <v>63.6053102446392</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.03498468015939</v>
+        <v>-10.7452617742999</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.4557120240023</v>
+        <v>-10.558411982935</v>
       </c>
       <c r="F4" t="n">
-        <v>49.113200774317</v>
+        <v>52.3907057682471</v>
       </c>
       <c r="G4" t="n">
-        <v>43.9643817269513</v>
+        <v>46.9531017382959</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63.6053102446392</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-10.558411982935</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.988720011344597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -564,11 +606,20 @@
       <c r="G5" t="n">
         <v>45.7018926142561</v>
       </c>
+      <c r="H5" t="n">
+        <v>2.363831235522099</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-11.6710340944175</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.7018926142561</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,61 +640,88 @@
       <c r="G6" t="n">
         <v>28.3700469778939</v>
       </c>
+      <c r="H6" t="n">
+        <v>10.2106097977376</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.12123583862426</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.3700469778939</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.1319431891811</v>
+        <v>49.725724151169</v>
       </c>
       <c r="C7" t="n">
-        <v>61.5369662964737</v>
+        <v>62.3010344657317</v>
       </c>
       <c r="D7" t="n">
-        <v>1.47138532318578</v>
+        <v>0.46788842204143</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.723654200654494</v>
+        <v>-1.91734263305418</v>
       </c>
       <c r="F7" t="n">
-        <v>38.396671487633</v>
+        <v>49.8063874267897</v>
       </c>
       <c r="G7" t="n">
-        <v>39.1866879041806</v>
+        <v>39.6163081673223</v>
+      </c>
+      <c r="H7" t="n">
+        <v>62.3010344657317</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.63245562273906</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.2462611894284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.725724151169</v>
+        <v>60.1319431891811</v>
       </c>
       <c r="C8" t="n">
-        <v>62.3010344657317</v>
+        <v>61.5369662964737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.46788842204143</v>
+        <v>1.47138532318578</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.91734263305418</v>
+        <v>-0.723654200654494</v>
       </c>
       <c r="F8" t="n">
-        <v>49.8063874267897</v>
+        <v>38.396671487633</v>
       </c>
       <c r="G8" t="n">
-        <v>39.6163081673223</v>
+        <v>39.1866879041806</v>
+      </c>
+      <c r="H8" t="n">
+        <v>61.5369662964737</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.193688432399686</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39.1866879041806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -664,11 +742,20 @@
       <c r="G9" t="n">
         <v>39.4708062553431</v>
       </c>
+      <c r="H9" t="n">
+        <v>55.8676814771835</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.385166468127994</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2841183511624976</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -689,61 +776,88 @@
       <c r="G10" t="n">
         <v>47.8012044689721</v>
       </c>
+      <c r="H10" t="n">
+        <v>12.6540302111168</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-16.3229161572722</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.330398213629003</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.9067460152289</v>
+        <v>68.2836608024575</v>
       </c>
       <c r="C11" t="n">
-        <v>66.5262791168975</v>
+        <v>68.3983276493243</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.65084708135837</v>
+        <v>-8.548636771870839</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.71080233729</v>
+        <v>-12.293433186423</v>
       </c>
       <c r="F11" t="n">
-        <v>44.7441010661294</v>
+        <v>40.2649759694132</v>
       </c>
       <c r="G11" t="n">
-        <v>44.1845232203926</v>
+        <v>43.8951055370988</v>
+      </c>
+      <c r="H11" t="n">
+        <v>68.3983276493243</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.0294829708492</v>
+      </c>
+      <c r="J11" t="n">
+        <v>43.8951055370988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.2836608024575</v>
+        <v>62.9067460152289</v>
       </c>
       <c r="C12" t="n">
-        <v>68.3983276493243</v>
+        <v>66.5262791168975</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.548636771870839</v>
+        <v>-7.65084708135837</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.293433186423</v>
+        <v>-10.71080233729</v>
       </c>
       <c r="F12" t="n">
-        <v>40.2649759694132</v>
+        <v>44.7441010661294</v>
       </c>
       <c r="G12" t="n">
-        <v>43.8951055370988</v>
+        <v>44.1845232203926</v>
+      </c>
+      <c r="H12" t="n">
+        <v>66.5262791168975</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.582630849133</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2894176832937987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -764,11 +878,20 @@
       <c r="G13" t="n">
         <v>43.2008718618773</v>
       </c>
+      <c r="H13" t="n">
+        <v>63.9848715382958</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.525058937117049</v>
+      </c>
+      <c r="J13" t="n">
+        <v>43.2008718618773</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -789,61 +912,88 @@
       <c r="G14" t="n">
         <v>13.3979235725038</v>
       </c>
+      <c r="H14" t="n">
+        <v>2.105990332760506</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27.69695795661285</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.3979235725038</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.1965948990418</v>
+        <v>52.2899088581393</v>
       </c>
       <c r="C15" t="n">
-        <v>59.0671637862615</v>
+        <v>58.9978891316221</v>
       </c>
       <c r="D15" t="n">
-        <v>17.4756854159693</v>
+        <v>14.0438601086188</v>
       </c>
       <c r="E15" t="n">
-        <v>17.2878594230108</v>
+        <v>17.1873304194735</v>
       </c>
       <c r="F15" t="n">
-        <v>23.3277196849889</v>
+        <v>33.6662310332419</v>
       </c>
       <c r="G15" t="n">
-        <v>23.6449767907276</v>
+        <v>23.8147804489044</v>
+      </c>
+      <c r="H15" t="n">
+        <v>58.9978891316221</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17.1873304194735</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.4168568764006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.2899088581393</v>
+        <v>59.1965948990418</v>
       </c>
       <c r="C16" t="n">
-        <v>58.9978891316221</v>
+        <v>59.0671637862615</v>
       </c>
       <c r="D16" t="n">
-        <v>14.0438601086188</v>
+        <v>17.4756854159693</v>
       </c>
       <c r="E16" t="n">
-        <v>17.1873304194735</v>
+        <v>17.2878594230108</v>
       </c>
       <c r="F16" t="n">
-        <v>33.6662310332419</v>
+        <v>23.3277196849889</v>
       </c>
       <c r="G16" t="n">
-        <v>23.8147804489044</v>
+        <v>23.6449767907276</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06927465463940052</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1005290035373001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23.6449767907276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -864,11 +1014,20 @@
       <c r="G17" t="n">
         <v>28.8844731944176</v>
       </c>
+      <c r="H17" t="n">
+        <v>58.5625527315661</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.552974074016</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.239496403689998</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -889,61 +1048,88 @@
       <c r="G18" t="n">
         <v>24.0409607233731</v>
       </c>
+      <c r="H18" t="n">
+        <v>58.4146963512201</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.991368851390799</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24.0409607233731</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.5188093814298</v>
+        <v>-68.4341273757271</v>
       </c>
       <c r="C19" t="n">
-        <v>-302.404863073248</v>
+        <v>155.550639361443</v>
       </c>
       <c r="D19" t="n">
-        <v>23.9591918769264</v>
+        <v>14.0323340435744</v>
       </c>
       <c r="E19" t="n">
-        <v>34.4474976043345</v>
+        <v>20.2337040449976</v>
       </c>
       <c r="F19" t="n">
-        <v>40.5219987416439</v>
+        <v>154.401793332153</v>
       </c>
       <c r="G19" t="n">
-        <v>367.957365468917</v>
+        <v>-75.7843434064407</v>
+      </c>
+      <c r="H19" t="n">
+        <v>97.13594301022289</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.689361119590803</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-75.7843434064407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-68.4341273757271</v>
+        <v>35.5188093814298</v>
       </c>
       <c r="C20" t="n">
-        <v>155.550639361443</v>
+        <v>-302.404863073248</v>
       </c>
       <c r="D20" t="n">
-        <v>14.0323340435744</v>
+        <v>23.9591918769264</v>
       </c>
       <c r="E20" t="n">
-        <v>20.2337040449976</v>
+        <v>34.4474976043345</v>
       </c>
       <c r="F20" t="n">
-        <v>154.401793332153</v>
+        <v>40.5219987416439</v>
       </c>
       <c r="G20" t="n">
-        <v>-75.7843434064407</v>
+        <v>367.957365468917</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-302.404863073248</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14.2137935593369</v>
+      </c>
+      <c r="J20" t="n">
+        <v>443.7417088753577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -964,11 +1150,20 @@
       <c r="G21" t="n">
         <v>81.5125825432814</v>
       </c>
+      <c r="H21" t="n">
+        <v>295.562622763987</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.3296577659804</v>
+      </c>
+      <c r="J21" t="n">
+        <v>81.5125825432814</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -989,61 +1184,88 @@
       <c r="G22" t="n">
         <v>24.0316855962699</v>
       </c>
+      <c r="H22" t="n">
+        <v>57.49247997901358</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25.3180747339774</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24.0316855962699</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77.5170506813181</v>
+        <v>74.09198288384231</v>
       </c>
       <c r="C23" t="n">
-        <v>62.0753716279546</v>
+        <v>58.7410583421773</v>
       </c>
       <c r="D23" t="n">
-        <v>14.7215364346294</v>
+        <v>13.0689379564442</v>
       </c>
       <c r="E23" t="n">
-        <v>19.9593407031738</v>
+        <v>21.0903369051123</v>
       </c>
       <c r="F23" t="n">
-        <v>7.76141288405234</v>
+        <v>12.8390791597133</v>
       </c>
       <c r="G23" t="n">
-        <v>17.9652876688716</v>
+        <v>20.1686047527103</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.090818672424696</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.0903369051123</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.1686047527103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.09198288384231</v>
+        <v>77.5170506813181</v>
       </c>
       <c r="C24" t="n">
-        <v>58.7410583421773</v>
+        <v>62.0753716279546</v>
       </c>
       <c r="D24" t="n">
-        <v>13.0689379564442</v>
+        <v>14.7215364346294</v>
       </c>
       <c r="E24" t="n">
-        <v>21.0903369051123</v>
+        <v>19.9593407031738</v>
       </c>
       <c r="F24" t="n">
-        <v>12.8390791597133</v>
+        <v>7.76141288405234</v>
       </c>
       <c r="G24" t="n">
-        <v>20.1686047527103</v>
+        <v>17.9652876688716</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.334313285777306</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.9593407031738</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17.9652876688716</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1062,6 +1284,15 @@
         <v>-11.6205497138293</v>
       </c>
       <c r="G25" t="n">
+        <v>13.691092878144</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.350253581671303</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9239412090560997</v>
+      </c>
+      <c r="J25" t="n">
         <v>13.691092878144</v>
       </c>
     </row>

--- a/data_quarter/zb/国民经济核算/三大需求对国内生产总值增长的贡献率.xlsx
+++ b/data_quarter/zb/国民经济核算/三大需求对国内生产总值增长的贡献率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,21 +464,6 @@
           <t>资本形成总额对国内生产总值增长贡献率_累计值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>最终消费支出对国内生产总值增长贡献率</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>货物和服务净出口对国内生产总值增长贡献率</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>资本形成总额对国内生产总值增长贡献率</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -504,82 +489,55 @@
       <c r="G2" t="n">
         <v>38.3015201706892</v>
       </c>
-      <c r="H2" t="n">
-        <v>78.11610820734271</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-16.4176283780316</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38.3015201706892</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.9217839058424</v>
+        <v>58.3545560060529</v>
       </c>
       <c r="C3" t="n">
-        <v>66.49133029705099</v>
+        <v>63.6053102446392</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.03498468015939</v>
+        <v>-10.7452617742999</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.4557120240023</v>
+        <v>-10.558411982935</v>
       </c>
       <c r="F3" t="n">
-        <v>49.113200774317</v>
+        <v>52.3907057682471</v>
       </c>
       <c r="G3" t="n">
-        <v>43.9643817269513</v>
-      </c>
-      <c r="H3" t="n">
-        <v>66.49133029705099</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.961916354029301</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.662861556262101</v>
+        <v>46.9531017382959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.3545560060529</v>
+        <v>55.9217839058424</v>
       </c>
       <c r="C4" t="n">
-        <v>63.6053102446392</v>
+        <v>66.49133029705099</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.7452617742999</v>
+        <v>-5.03498468015939</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.558411982935</v>
+        <v>-10.4557120240023</v>
       </c>
       <c r="F4" t="n">
-        <v>52.3907057682471</v>
+        <v>49.113200774317</v>
       </c>
       <c r="G4" t="n">
-        <v>46.9531017382959</v>
-      </c>
-      <c r="H4" t="n">
-        <v>63.6053102446392</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-10.558411982935</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.988720011344597</v>
+        <v>43.9643817269513</v>
       </c>
     </row>
     <row r="5">
@@ -606,15 +564,6 @@
       <c r="G5" t="n">
         <v>45.7018926142561</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.363831235522099</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-11.6710340944175</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45.7018926142561</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -640,82 +589,55 @@
       <c r="G6" t="n">
         <v>28.3700469778939</v>
       </c>
-      <c r="H6" t="n">
-        <v>10.2106097977376</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.12123583862426</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28.3700469778939</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.725724151169</v>
+        <v>60.1319431891811</v>
       </c>
       <c r="C7" t="n">
-        <v>62.3010344657317</v>
+        <v>61.5369662964737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46788842204143</v>
+        <v>1.47138532318578</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.91734263305418</v>
+        <v>-0.723654200654494</v>
       </c>
       <c r="F7" t="n">
-        <v>49.8063874267897</v>
+        <v>38.396671487633</v>
       </c>
       <c r="G7" t="n">
-        <v>39.6163081673223</v>
-      </c>
-      <c r="H7" t="n">
-        <v>62.3010344657317</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.63245562273906</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.2462611894284</v>
+        <v>39.1866879041806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.1319431891811</v>
+        <v>49.725724151169</v>
       </c>
       <c r="C8" t="n">
-        <v>61.5369662964737</v>
+        <v>62.3010344657317</v>
       </c>
       <c r="D8" t="n">
-        <v>1.47138532318578</v>
+        <v>0.46788842204143</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.723654200654494</v>
+        <v>-1.91734263305418</v>
       </c>
       <c r="F8" t="n">
-        <v>38.396671487633</v>
+        <v>49.8063874267897</v>
       </c>
       <c r="G8" t="n">
-        <v>39.1866879041806</v>
-      </c>
-      <c r="H8" t="n">
-        <v>61.5369662964737</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.193688432399686</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39.1866879041806</v>
+        <v>39.6163081673223</v>
       </c>
     </row>
     <row r="9">
@@ -742,15 +664,6 @@
       <c r="G9" t="n">
         <v>39.4708062553431</v>
       </c>
-      <c r="H9" t="n">
-        <v>55.8676814771835</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.385166468127994</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2841183511624976</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -776,82 +689,55 @@
       <c r="G10" t="n">
         <v>47.8012044689721</v>
       </c>
-      <c r="H10" t="n">
-        <v>12.6540302111168</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-16.3229161572722</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.330398213629003</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.2836608024575</v>
+        <v>62.9067460152289</v>
       </c>
       <c r="C11" t="n">
-        <v>68.3983276493243</v>
+        <v>66.5262791168975</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.548636771870839</v>
+        <v>-7.65084708135837</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.293433186423</v>
+        <v>-10.71080233729</v>
       </c>
       <c r="F11" t="n">
-        <v>40.2649759694132</v>
+        <v>44.7441010661294</v>
       </c>
       <c r="G11" t="n">
-        <v>43.8951055370988</v>
-      </c>
-      <c r="H11" t="n">
-        <v>68.3983276493243</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.0294829708492</v>
-      </c>
-      <c r="J11" t="n">
-        <v>43.8951055370988</v>
+        <v>44.1845232203926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.9067460152289</v>
+        <v>68.2836608024575</v>
       </c>
       <c r="C12" t="n">
-        <v>66.5262791168975</v>
+        <v>68.3983276493243</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.65084708135837</v>
+        <v>-8.548636771870839</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.71080233729</v>
+        <v>-12.293433186423</v>
       </c>
       <c r="F12" t="n">
-        <v>44.7441010661294</v>
+        <v>40.2649759694132</v>
       </c>
       <c r="G12" t="n">
-        <v>44.1845232203926</v>
-      </c>
-      <c r="H12" t="n">
-        <v>66.5262791168975</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.582630849133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2894176832937987</v>
+        <v>43.8951055370988</v>
       </c>
     </row>
     <row r="13">
@@ -878,15 +764,6 @@
       <c r="G13" t="n">
         <v>43.2008718618773</v>
       </c>
-      <c r="H13" t="n">
-        <v>63.9848715382958</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.525058937117049</v>
-      </c>
-      <c r="J13" t="n">
-        <v>43.2008718618773</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -912,82 +789,55 @@
       <c r="G14" t="n">
         <v>13.3979235725038</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.105990332760506</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27.69695795661285</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.3979235725038</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.2899088581393</v>
+        <v>59.1965948990418</v>
       </c>
       <c r="C15" t="n">
-        <v>58.9978891316221</v>
+        <v>59.0671637862615</v>
       </c>
       <c r="D15" t="n">
-        <v>14.0438601086188</v>
+        <v>17.4756854159693</v>
       </c>
       <c r="E15" t="n">
-        <v>17.1873304194735</v>
+        <v>17.2878594230108</v>
       </c>
       <c r="F15" t="n">
-        <v>33.6662310332419</v>
+        <v>23.3277196849889</v>
       </c>
       <c r="G15" t="n">
-        <v>23.8147804489044</v>
-      </c>
-      <c r="H15" t="n">
-        <v>58.9978891316221</v>
-      </c>
-      <c r="I15" t="n">
-        <v>17.1873304194735</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.4168568764006</v>
+        <v>23.6449767907276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.1965948990418</v>
+        <v>52.2899088581393</v>
       </c>
       <c r="C16" t="n">
-        <v>59.0671637862615</v>
+        <v>58.9978891316221</v>
       </c>
       <c r="D16" t="n">
-        <v>17.4756854159693</v>
+        <v>14.0438601086188</v>
       </c>
       <c r="E16" t="n">
-        <v>17.2878594230108</v>
+        <v>17.1873304194735</v>
       </c>
       <c r="F16" t="n">
-        <v>23.3277196849889</v>
+        <v>33.6662310332419</v>
       </c>
       <c r="G16" t="n">
-        <v>23.6449767907276</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.06927465463940052</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1005290035373001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23.6449767907276</v>
+        <v>23.8147804489044</v>
       </c>
     </row>
     <row r="17">
@@ -1014,15 +864,6 @@
       <c r="G17" t="n">
         <v>28.8844731944176</v>
       </c>
-      <c r="H17" t="n">
-        <v>58.5625527315661</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.552974074016</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.239496403689998</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1048,82 +889,55 @@
       <c r="G18" t="n">
         <v>24.0409607233731</v>
       </c>
-      <c r="H18" t="n">
-        <v>58.4146963512201</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.991368851390799</v>
-      </c>
-      <c r="J18" t="n">
-        <v>24.0409607233731</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-68.4341273757271</v>
+        <v>35.5188093814298</v>
       </c>
       <c r="C19" t="n">
-        <v>155.550639361443</v>
+        <v>-302.404863073248</v>
       </c>
       <c r="D19" t="n">
-        <v>14.0323340435744</v>
+        <v>23.9591918769264</v>
       </c>
       <c r="E19" t="n">
-        <v>20.2337040449976</v>
+        <v>34.4474976043345</v>
       </c>
       <c r="F19" t="n">
-        <v>154.401793332153</v>
+        <v>40.5219987416439</v>
       </c>
       <c r="G19" t="n">
-        <v>-75.7843434064407</v>
-      </c>
-      <c r="H19" t="n">
-        <v>97.13594301022289</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.689361119590803</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-75.7843434064407</v>
+        <v>367.957365468917</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.5188093814298</v>
+        <v>-68.4341273757271</v>
       </c>
       <c r="C20" t="n">
-        <v>-302.404863073248</v>
+        <v>155.550639361443</v>
       </c>
       <c r="D20" t="n">
-        <v>23.9591918769264</v>
+        <v>14.0323340435744</v>
       </c>
       <c r="E20" t="n">
-        <v>34.4474976043345</v>
+        <v>20.2337040449976</v>
       </c>
       <c r="F20" t="n">
-        <v>40.5219987416439</v>
+        <v>154.401793332153</v>
       </c>
       <c r="G20" t="n">
-        <v>367.957365468917</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-302.404863073248</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14.2137935593369</v>
-      </c>
-      <c r="J20" t="n">
-        <v>443.7417088753577</v>
+        <v>-75.7843434064407</v>
       </c>
     </row>
     <row r="21">
@@ -1150,15 +964,6 @@
       <c r="G21" t="n">
         <v>81.5125825432814</v>
       </c>
-      <c r="H21" t="n">
-        <v>295.562622763987</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25.3296577659804</v>
-      </c>
-      <c r="J21" t="n">
-        <v>81.5125825432814</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1167,99 +972,72 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.6502396697526</v>
+        <v>47.1910071757524</v>
       </c>
       <c r="C22" t="n">
-        <v>50.6502396697526</v>
+        <v>47.1910071757524</v>
       </c>
       <c r="D22" t="n">
-        <v>25.3180747339774</v>
+        <v>25.7616412004057</v>
       </c>
       <c r="E22" t="n">
-        <v>25.3180747339774</v>
+        <v>25.7616412004057</v>
       </c>
       <c r="F22" t="n">
-        <v>24.0316855962699</v>
+        <v>27.0473516238418</v>
       </c>
       <c r="G22" t="n">
-        <v>24.0316855962699</v>
-      </c>
-      <c r="H22" t="n">
-        <v>57.49247997901358</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25.3180747339774</v>
-      </c>
-      <c r="J22" t="n">
-        <v>24.0316855962699</v>
+        <v>27.0473516238418</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>74.09198288384231</v>
+        <v>65.251877166353</v>
       </c>
       <c r="C23" t="n">
-        <v>58.7410583421773</v>
+        <v>56.0709907359548</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0689379564442</v>
+        <v>20.6457427381183</v>
       </c>
       <c r="E23" t="n">
-        <v>21.0903369051123</v>
+        <v>20.9147698132891</v>
       </c>
       <c r="F23" t="n">
-        <v>12.8390791597133</v>
+        <v>14.1023800955286</v>
       </c>
       <c r="G23" t="n">
-        <v>20.1686047527103</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8.090818672424696</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21.0903369051123</v>
-      </c>
-      <c r="J23" t="n">
-        <v>20.1686047527103</v>
+        <v>23.0142394507561</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.5170506813181</v>
+        <v>66.52705768914331</v>
       </c>
       <c r="C24" t="n">
-        <v>62.0753716279546</v>
+        <v>53.9930560068381</v>
       </c>
       <c r="D24" t="n">
-        <v>14.7215364346294</v>
+        <v>12.1566249077651</v>
       </c>
       <c r="E24" t="n">
-        <v>19.9593407031738</v>
+        <v>20.9756594350928</v>
       </c>
       <c r="F24" t="n">
-        <v>7.76141288405234</v>
+        <v>21.3163174030915</v>
       </c>
       <c r="G24" t="n">
-        <v>17.9652876688716</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.334313285777306</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19.9593407031738</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17.9652876688716</v>
+        <v>25.031284558069</v>
       </c>
     </row>
     <row r="25">
@@ -1269,31 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.2657179999012</v>
+        <v>70.6126698254599</v>
       </c>
       <c r="C25" t="n">
-        <v>65.42562520962591</v>
+        <v>58.261396957157</v>
       </c>
       <c r="D25" t="n">
-        <v>26.3548317139278</v>
+        <v>27.6196866029018</v>
       </c>
       <c r="E25" t="n">
-        <v>20.8832819122299</v>
+        <v>21.9247282478147</v>
       </c>
       <c r="F25" t="n">
-        <v>-11.6205497138293</v>
+        <v>1.76764357163774</v>
       </c>
       <c r="G25" t="n">
-        <v>13.691092878144</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.350253581671303</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9239412090560997</v>
-      </c>
-      <c r="J25" t="n">
-        <v>13.691092878144</v>
+        <v>19.8138747950282</v>
       </c>
     </row>
   </sheetData>
